--- a/examples/network/dtu42380a1/results/promotion.xlsx
+++ b/examples/network/dtu42380a1/results/promotion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edxu96/GitHub/MatrixOptim.jl/examples/network/dtu42380a1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F64636E-BD9E-9B48-AD36-4FBCE6D860B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D59EC9-B78B-7D4B-AF8B-BFC7A88B0820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37940" yWindow="3300" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29480" yWindow="-1100" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="promotion" sheetId="1" r:id="rId1"/>
@@ -705,9 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,6 +712,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K25"/>
+      <selection activeCell="F24" sqref="F24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>50.81336805555555</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="L12:O12" si="6">AVERAGE(O8:O11)</f>
+        <f t="shared" ref="O12" si="6">AVERAGE(O8:O11)</f>
         <v>0</v>
       </c>
       <c r="P12" s="4"/>
@@ -2015,7 +2015,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
       <c r="B20" s="2">
@@ -2027,7 +2027,7 @@
       <c r="D20" s="2">
         <v>100</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="12">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="D21" s="2">
         <v>100</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2">
         <v>3</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="D22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="12">
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="11">
         <v>2</v>
       </c>
       <c r="B23" s="2">
@@ -2124,7 +2124,7 @@
       <c r="D23" s="2">
         <v>100</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2143,7 +2143,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2">
         <v>2</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="D24" s="2">
         <v>100</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="12">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2176,7 +2176,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2">
         <v>3</v>
       </c>
@@ -2187,7 +2187,7 @@
         <f>(E12-R12)/E12*100</f>
         <v>98.150052313110109</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2206,7 +2206,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="11">
         <v>3</v>
       </c>
       <c r="B26" s="2">
@@ -2220,7 +2220,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2">
         <v>2</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2">
         <v>3</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A23:A25"/>
@@ -2253,6 +2253,9 @@
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
